--- a/test/menu-excel/menu_ar.xlsx
+++ b/test/menu-excel/menu_ar.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="17424" windowHeight="9480"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="180">
   <si>
-    <t xml:space="preserve">name </t>
+    <t>name</t>
   </si>
   <si>
     <t>price</t>
@@ -286,18 +286,7 @@
     <t>نان بالجزر</t>
   </si>
   <si>
-    <r>
-      <t>خبز نان هند</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ي طري وهش مضاف اليه الجزر المبشور وتوابل خفيفة يخبز في فرن التندوري ليمنح نكهة متوازية بين الحاتوة والملوحة</t>
-    </r>
+    <t>خبز نان هندي طري وهش مضاف اليه الجزر المبشور وتوابل خفيفة يخبز في فرن التندوري ليمنح نكهة متوازية بين الحاتوة والملوحة</t>
   </si>
   <si>
     <t>نان خبز</t>
@@ -306,52 +295,19 @@
     <t>نان بالجبنة</t>
   </si>
   <si>
-    <r>
-      <t>خبز نان هند</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ي طري ومحشو بالجبنة الذاىبة يخبز في التندور حتى يتحمر ويقدم دافىا</t>
-    </r>
+    <t>خبز نان هندي طري ومحشو بالجبنة الذاىبة يخبز في التندور حتى يتحمر ويقدم دافىا</t>
   </si>
   <si>
     <t>نان بالثوم</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">خبز </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>نان هندي تقليدي يزين بالثوم المفروم الطازج والكزبرة ويخبز فب التندور حتى يتحمر وتفوح راىحته الزكية</t>
-    </r>
+    <t>خبز نان هندي تقليدي يزين بالثوم المفروم الطازج والكزبرة ويخبز فب التندور حتى يتحمر وتفوح راىحته الزكية</t>
   </si>
   <si>
     <t>نان بالزبدة</t>
   </si>
   <si>
-    <r>
-      <t>خبز نان هندي</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> طري وهش يدهن بالزبدة الذاىبة ويخبز في التندورويقدم دافىا</t>
-    </r>
+    <t>خبز نان هندي طري وهش يدهن بالزبدة الذاىبة ويخبز في التندورويقدم دافىا</t>
   </si>
   <si>
     <t>خبز البوري</t>
@@ -605,12 +561,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,25 +580,37 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF404040"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -654,53 +622,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,36 +637,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -752,15 +644,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,14 +676,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,12 +733,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -816,7 +748,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,7 +778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,25 +790,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,6 +820,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -889,6 +833,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,37 +904,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,37 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,7 +949,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,17 +984,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,7 +1003,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,30 +1025,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1104,10 +1033,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1125,172 +1063,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1640,12 +1542,12 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1658,1913 +1560,1712 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>11</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>12</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:7">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>13</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>62</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>120</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>18</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>150</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>18</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>150</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:7">
-      <c r="A8" s="4" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>19</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="4" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>19</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>134</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:7">
-      <c r="A10" s="4" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>21</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>180</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="4" t="s">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>21</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>180</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:7">
-      <c r="A12" s="4" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>21</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>180</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="4" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>21</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>200</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="1:7">
-      <c r="A14" s="4" t="s">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>22</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>200</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="4" t="s">
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>17</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>6</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="1:7">
-      <c r="A16" s="4" t="s">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="8" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>17</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17">
         <v>150</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:7">
-      <c r="A18" s="8" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <v>18</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18">
         <v>134</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="8" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>19</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <v>180</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="1:7">
-      <c r="A20" s="8" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20">
         <v>180</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="1:7">
-      <c r="A21" s="8" t="s">
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>22</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21">
         <v>200</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="1:7">
-      <c r="A22" s="8" t="s">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22">
         <v>200</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:7">
-      <c r="A23" s="8" t="s">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="1:7">
-      <c r="A24" s="8" t="s">
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
         <v>16</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="1:7">
-      <c r="A25" s="8" t="s">
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>18</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25">
         <v>6</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="1:7">
-      <c r="A26" s="8" t="s">
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26">
         <v>16</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26">
         <v>10</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:7">
-      <c r="A27" s="4" t="s">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <v>18</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27">
         <v>110</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" spans="1:7">
-      <c r="A28" s="4" t="s">
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28">
         <v>24</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28">
         <v>10</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="1:7">
-      <c r="A29" s="4" t="s">
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>26</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29">
         <v>120</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" spans="1:7">
-      <c r="A30" s="4" t="s">
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30">
         <v>80</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" ht="15" customHeight="1" spans="1:7">
-      <c r="A31" s="4" t="s">
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31">
         <v>29</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31">
         <v>150</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" spans="1:7">
-      <c r="A32" s="4" t="s">
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32">
         <v>28</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32">
         <v>220</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" spans="1:7">
-      <c r="A33" s="4" t="s">
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33">
         <v>16</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33">
         <v>70</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" ht="15" customHeight="1" spans="1:7">
-      <c r="A34" s="4" t="s">
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34">
         <v>18</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34">
         <v>90</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" ht="15" customHeight="1" spans="1:7">
-      <c r="A35" s="4" t="s">
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35">
         <v>130</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="7" t="s">
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" ht="15" customHeight="1" spans="1:7">
-      <c r="A36" s="4" t="s">
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36">
         <v>130</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" ht="15" customHeight="1" spans="1:7">
-      <c r="A37" s="4" t="s">
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37">
         <v>5</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37">
         <v>130</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="7" t="s">
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" ht="15" customHeight="1" spans="1:7">
-      <c r="A38" s="4" t="s">
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38">
         <v>130</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" ht="15" customHeight="1" spans="1:7">
-      <c r="A39" s="4" t="s">
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39">
         <v>5</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39">
         <v>130</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" ht="15" customHeight="1" spans="1:7">
-      <c r="A40" s="9" t="s">
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40">
         <v>18</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40">
         <v>160</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" ht="15" customHeight="1" spans="1:7">
-      <c r="A41" s="9" t="s">
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41">
         <v>18</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41">
         <v>180</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" ht="15" customHeight="1" spans="1:7">
-      <c r="A42" s="9" t="s">
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42">
         <v>25</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42">
         <v>200</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" ht="15" customHeight="1" spans="1:7">
-      <c r="A43" s="9" t="s">
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43">
         <v>19</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43">
         <v>160</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" ht="15" customHeight="1" spans="1:7">
-      <c r="A44" s="9" t="s">
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44">
         <v>27</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44">
         <v>350</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" t="s">
         <v>57</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" ht="15" customHeight="1" spans="1:7">
-      <c r="A45" s="9" t="s">
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45">
         <v>20</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45">
         <v>200</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" ht="15" customHeight="1" spans="1:7">
-      <c r="A46" s="9" t="s">
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46">
         <v>29</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46">
         <v>220</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" ht="15" customHeight="1" spans="1:7">
-      <c r="A47" s="9" t="s">
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47">
         <v>32</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47">
         <v>250</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" t="s">
         <v>57</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" ht="15" customHeight="1" spans="1:7">
-      <c r="A48" s="9" t="s">
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48">
         <v>32</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48">
         <v>320</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" t="s">
         <v>68</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" ht="15" customHeight="1" spans="1:7">
-      <c r="A49" s="9" t="s">
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49">
         <v>32</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49">
         <v>325</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" t="s">
         <v>68</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" ht="15" customHeight="1" spans="1:7">
-      <c r="A50" s="9" t="s">
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50">
         <v>25</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50">
         <v>330</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" ht="15" customHeight="1" spans="1:7">
-      <c r="A51" s="9" t="s">
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51">
         <v>35</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51">
         <v>318</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" ht="15" customHeight="1" spans="1:7">
-      <c r="A52" s="9" t="s">
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52">
         <v>36</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52">
         <v>300</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" ht="15" customHeight="1" spans="1:7">
-      <c r="A53" s="9" t="s">
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53">
         <v>39</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53">
         <v>550</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" t="s">
         <v>79</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" ht="15" customHeight="1" spans="1:7">
-      <c r="A54" s="9" t="s">
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54">
         <v>42</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54">
         <v>555</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" ht="15" customHeight="1" spans="1:7">
-      <c r="A55" s="12" t="s">
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
         <v>82</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55">
         <v>45</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55">
         <v>365</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" t="s">
         <v>83</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" t="s">
         <v>84</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" ht="15" customHeight="1" spans="1:7">
-      <c r="A56" s="12" t="s">
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56">
         <v>47</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56">
         <v>399</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" t="s">
         <v>86</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" t="s">
         <v>84</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" ht="15" customHeight="1" spans="1:7">
-      <c r="A57" s="12" t="s">
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57">
         <v>49</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57">
         <v>350</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" ht="15" customHeight="1" spans="1:7">
-      <c r="A58" s="9" t="s">
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58">
         <v>4</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58">
         <v>200</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" t="s">
         <v>90</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" ht="15" customHeight="1" spans="1:7">
-      <c r="A59" s="9" t="s">
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59">
         <v>6</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59">
         <v>220</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" t="s">
         <v>93</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" t="s">
         <v>91</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-    </row>
-    <row r="60" ht="15" customHeight="1" spans="1:7">
-      <c r="A60" s="9" t="s">
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60">
         <v>3</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60">
         <v>190</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" t="s">
         <v>95</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" t="s">
         <v>91</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-    </row>
-    <row r="61" ht="15" customHeight="1" spans="1:7">
-      <c r="A61" s="9" t="s">
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61">
         <v>2</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61">
         <v>205</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" t="s">
         <v>97</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" t="s">
         <v>91</v>
       </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-    </row>
-    <row r="62" ht="15" customHeight="1" spans="1:7">
-      <c r="A62" s="9" t="s">
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62">
         <v>5</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62">
         <v>180</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" t="s">
         <v>99</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" t="s">
         <v>91</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-    </row>
-    <row r="63" ht="15" customHeight="1" spans="1:7">
-      <c r="A63" s="9" t="s">
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
         <v>100</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63">
         <v>5</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63">
         <v>175</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" t="s">
         <v>101</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" t="s">
         <v>91</v>
       </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-    </row>
-    <row r="64" ht="15" customHeight="1" spans="1:7">
-      <c r="A64" s="9" t="s">
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
         <v>102</v>
       </c>
-      <c r="B64" s="10">
-        <v>8</v>
-      </c>
-      <c r="C64" s="10">
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
         <v>165</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" t="s">
         <v>103</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" ht="15" customHeight="1" spans="1:7">
-      <c r="A65" s="9" t="s">
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
         <v>104</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65">
         <v>25</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65">
         <v>270</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" t="s">
         <v>105</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" t="s">
         <v>106</v>
       </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" ht="15" customHeight="1" spans="1:7">
-      <c r="A66" s="9" t="s">
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66">
         <v>32</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66">
         <v>260</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" t="s">
         <v>108</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" t="s">
         <v>106</v>
       </c>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" ht="15" customHeight="1" spans="1:7">
-      <c r="A67" s="9" t="s">
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
         <v>109</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67">
         <v>29</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67">
         <v>255</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" t="s">
         <v>110</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" t="s">
         <v>106</v>
       </c>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-    </row>
-    <row r="68" ht="15" customHeight="1" spans="1:7">
-      <c r="A68" s="9" t="s">
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
         <v>111</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68">
         <v>36</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68">
         <v>280</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" t="s">
         <v>112</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" t="s">
         <v>106</v>
       </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-    </row>
-    <row r="69" ht="15" customHeight="1" spans="1:7">
-      <c r="A69" s="14" t="s">
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
         <v>113</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69">
         <v>33</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69">
         <v>455</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" t="s">
         <v>114</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" t="s">
         <v>115</v>
       </c>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-    </row>
-    <row r="70" ht="15" customHeight="1" spans="1:7">
-      <c r="A70" s="14" t="s">
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
         <v>116</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70">
         <v>37</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70">
         <v>550</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" t="s">
         <v>117</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" t="s">
         <v>115</v>
       </c>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-    </row>
-    <row r="71" ht="15" customHeight="1" spans="1:7">
-      <c r="A71" s="14" t="s">
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
         <v>118</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71">
         <v>37</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71">
         <v>450</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" t="s">
         <v>115</v>
       </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-    </row>
-    <row r="72" ht="15" customHeight="1" spans="1:7">
-      <c r="A72" s="14" t="s">
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
         <v>120</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72">
         <v>34</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72">
         <v>380</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" t="s">
         <v>121</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" t="s">
         <v>115</v>
       </c>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-    </row>
-    <row r="73" ht="15" customHeight="1" spans="1:7">
-      <c r="A73" s="14" t="s">
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
         <v>122</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73">
         <v>39</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73">
         <v>550</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" t="s">
         <v>123</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" t="s">
         <v>115</v>
       </c>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-    </row>
-    <row r="74" ht="15" customHeight="1" spans="1:7">
-      <c r="A74" s="9" t="s">
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
         <v>124</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74">
         <v>32</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74">
         <v>389</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="15" t="s">
+      <c r="E74" t="s">
         <v>125</v>
       </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-    </row>
-    <row r="75" ht="15" customHeight="1" spans="1:7">
-      <c r="A75" s="9" t="s">
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
         <v>126</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75">
         <v>36</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75">
         <v>388</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" t="s">
         <v>127</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" t="s">
         <v>125</v>
       </c>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-    </row>
-    <row r="76" ht="15" customHeight="1" spans="1:7">
-      <c r="A76" s="9" t="s">
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76">
         <v>35</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76">
         <v>399</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" t="s">
         <v>129</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" t="s">
         <v>125</v>
       </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-    </row>
-    <row r="77" ht="15" customHeight="1" spans="1:7">
-      <c r="A77" s="9" t="s">
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
         <v>130</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77">
         <v>29</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77">
         <v>394</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" t="s">
         <v>125</v>
       </c>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-    </row>
-    <row r="78" ht="15" customHeight="1" spans="1:7">
-      <c r="A78" s="9" t="s">
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
         <v>132</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78">
         <v>35</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78">
         <v>399</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" t="s">
         <v>133</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" t="s">
         <v>125</v>
       </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-    </row>
-    <row r="79" ht="15" customHeight="1" spans="1:7">
-      <c r="A79" s="9" t="s">
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
         <v>134</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79">
         <v>25</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79">
         <v>398</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" t="s">
         <v>135</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" t="s">
         <v>125</v>
       </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-    </row>
-    <row r="80" ht="15" customHeight="1" spans="1:7">
-      <c r="A80" s="9" t="s">
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
         <v>136</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80">
         <v>27</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80">
         <v>280</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" t="s">
         <v>137</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E80" t="s">
         <v>125</v>
       </c>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-    </row>
-    <row r="81" ht="15" customHeight="1" spans="1:7">
-      <c r="A81" s="9" t="s">
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
         <v>138</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81">
         <v>25</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81">
         <v>200</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" t="s">
         <v>139</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" t="s">
         <v>125</v>
       </c>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-    </row>
-    <row r="82" ht="15" customHeight="1" spans="1:7">
-      <c r="A82" s="9" t="s">
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
         <v>140</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82">
         <v>43</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82">
         <v>300</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" t="s">
         <v>141</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" t="s">
         <v>125</v>
       </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-    </row>
-    <row r="83" ht="15" customHeight="1" spans="1:7">
-      <c r="A83" s="9" t="s">
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83">
         <v>17</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83">
         <v>299</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" t="s">
         <v>143</v>
       </c>
-      <c r="E83" s="15" t="s">
+      <c r="E83" t="s">
         <v>125</v>
       </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-    </row>
-    <row r="84" ht="15" customHeight="1" spans="1:7">
-      <c r="A84" s="9" t="s">
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
         <v>144</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84">
         <v>38</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84">
         <v>410</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" t="s">
         <v>145</v>
       </c>
-      <c r="E84" s="15" t="s">
+      <c r="E84" t="s">
         <v>125</v>
       </c>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-    </row>
-    <row r="85" ht="15" customHeight="1" spans="1:7">
-      <c r="A85" s="9" t="s">
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
         <v>146</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85">
         <v>43</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85">
         <v>150</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" t="s">
         <v>147</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" t="s">
         <v>125</v>
       </c>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-    </row>
-    <row r="86" ht="15" customHeight="1" spans="1:7">
-      <c r="A86" s="9" t="s">
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
         <v>148</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86">
         <v>46</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C86">
         <v>209</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" t="s">
         <v>149</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E86" t="s">
         <v>125</v>
       </c>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-    </row>
-    <row r="87" ht="15" customHeight="1" spans="1:7">
-      <c r="A87" s="9" t="s">
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87">
         <v>52</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87">
         <v>117</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" t="s">
         <v>151</v>
       </c>
-      <c r="E87" s="15" t="s">
+      <c r="E87" t="s">
         <v>125</v>
       </c>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-    </row>
-    <row r="88" ht="15" customHeight="1" spans="1:7">
-      <c r="A88" s="9" t="s">
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
         <v>152</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88">
         <v>86</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88">
         <v>308</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" t="s">
         <v>153</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E88" t="s">
         <v>125</v>
       </c>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-    </row>
-    <row r="89" ht="15" customHeight="1" spans="1:7">
-      <c r="A89" s="9" t="s">
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
         <v>154</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89">
         <v>92</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89">
         <v>190</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" t="s">
         <v>155</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E89" t="s">
         <v>125</v>
       </c>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-    </row>
-    <row r="90" ht="15" customHeight="1" spans="1:7">
-      <c r="A90" s="9" t="s">
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
         <v>156</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90">
         <v>37</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90">
         <v>160</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" t="s">
         <v>157</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" t="s">
         <v>158</v>
       </c>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-    </row>
-    <row r="91" ht="15" customHeight="1" spans="1:7">
-      <c r="A91" s="9" t="s">
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
         <v>159</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91">
         <v>38</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91">
         <v>165</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" t="s">
         <v>160</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" t="s">
         <v>158</v>
       </c>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-    </row>
-    <row r="92" ht="15" customHeight="1" spans="1:7">
-      <c r="A92" s="9" t="s">
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
         <v>161</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92">
         <v>37</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92">
         <v>230</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" t="s">
         <v>162</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" t="s">
         <v>158</v>
       </c>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-    </row>
-    <row r="93" ht="15" customHeight="1" spans="1:7">
-      <c r="A93" s="9" t="s">
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
         <v>163</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93">
         <v>39</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C93">
         <v>350</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" t="s">
         <v>164</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" t="s">
         <v>158</v>
       </c>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-    </row>
-    <row r="94" ht="15" customHeight="1" spans="1:7">
-      <c r="A94" s="9" t="s">
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
         <v>165</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94">
         <v>39</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94">
         <v>370</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" t="s">
         <v>166</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" t="s">
         <v>158</v>
       </c>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-    </row>
-    <row r="95" ht="15" customHeight="1" spans="1:7">
-      <c r="A95" s="9" t="s">
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
         <v>167</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95">
         <v>39</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95">
         <v>380</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" t="s">
         <v>168</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" t="s">
         <v>158</v>
       </c>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-    </row>
-    <row r="96" ht="15" customHeight="1" spans="1:7">
-      <c r="A96" s="9" t="s">
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
         <v>169</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96">
         <v>39</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96">
         <v>380</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" t="s">
         <v>170</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" t="s">
         <v>158</v>
       </c>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-    </row>
-    <row r="97" ht="15" customHeight="1" spans="1:7">
-      <c r="A97" s="9" t="s">
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
         <v>171</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97">
         <v>36</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C97">
         <v>340</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" t="s">
         <v>172</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" t="s">
         <v>158</v>
       </c>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-    </row>
-    <row r="98" ht="15" customHeight="1" spans="1:7">
-      <c r="A98" s="9" t="s">
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
         <v>173</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98">
         <v>45</v>
       </c>
-      <c r="C98" s="10">
+      <c r="C98">
         <v>390</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" t="s">
         <v>174</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" t="s">
         <v>158</v>
       </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-    </row>
-    <row r="99" ht="15" customHeight="1" spans="1:7">
-      <c r="A99" s="9" t="s">
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
         <v>175</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99">
         <v>49</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99">
         <v>400</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" t="s">
         <v>176</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" t="s">
         <v>158</v>
       </c>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-    </row>
-    <row r="100" ht="15" customHeight="1" spans="1:7">
-      <c r="A100" s="9" t="s">
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
         <v>177</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100">
         <v>52</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C100">
         <v>350</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" t="s">
         <v>178</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" t="s">
         <v>158</v>
       </c>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-    </row>
-    <row r="101" ht="15" customHeight="1" spans="1:7">
-      <c r="A101" s="9" t="s">
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
         <v>179</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101">
         <v>48</v>
       </c>
-      <c r="C101" s="10">
+      <c r="C101">
         <v>365</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" t="s">
         <v>157</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" t="s">
         <v>158</v>
       </c>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
